--- a/Cricket challenge.xlsx
+++ b/Cricket challenge.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8310" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6330" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Players Name" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Master_overall!$A$2:$Q$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Top runs'!$B$2:$J$22</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="292">
   <si>
     <t>01:30 PM GMT / 07:00 PM LOCAL</t>
   </si>
@@ -906,6 +906,15 @@
   </si>
   <si>
     <t>source-rediff.com</t>
+  </si>
+  <si>
+    <t>india win factor after 2010</t>
+  </si>
+  <si>
+    <t>Austrailia win factor after 2010</t>
+  </si>
+  <si>
+    <t>2019 ODI analysis</t>
   </si>
 </sst>
 </file>
@@ -5575,10 +5584,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5588,9 +5597,10 @@
     <col min="3" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>277</v>
       </c>
@@ -5598,7 +5608,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>278</v>
       </c>
@@ -5614,8 +5624,14 @@
       <c r="E2" s="25" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="F2" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>281</v>
       </c>
@@ -5631,8 +5647,10 @@
       <c r="E3" s="25">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>282</v>
       </c>
@@ -5648,8 +5666,10 @@
       <c r="E4" s="26">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>283</v>
       </c>
@@ -5665,8 +5685,10 @@
       <c r="E5" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>284</v>
       </c>
@@ -5682,8 +5704,10 @@
       <c r="E6" s="25">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>285</v>
       </c>
@@ -5699,8 +5723,10 @@
       <c r="E7" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>286</v>
       </c>
@@ -5716,8 +5742,10 @@
       <c r="E8" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>287</v>
       </c>
@@ -5732,6 +5760,33 @@
       </c>
       <c r="E9" s="27">
         <v>1</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="B11" s="27">
+        <v>7</v>
+      </c>
+      <c r="C11" s="27">
+        <v>4</v>
+      </c>
+      <c r="D11" s="27">
+        <v>2</v>
+      </c>
+      <c r="E11" s="27">
+        <v>1</v>
+      </c>
+      <c r="F11" s="27">
+        <f>(C11/B11)*100</f>
+        <v>57.142857142857139</v>
+      </c>
+      <c r="G11" s="27">
+        <f>(D11/B11)*100</f>
+        <v>28.571428571428569</v>
       </c>
     </row>
   </sheetData>
@@ -5744,7 +5799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B51" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
